--- a/data/trans_orig/P2C_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59473BBD-A9B4-4BA4-9841-0045A1062B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEEF133-ED2E-4ED8-AE01-541F0C14D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4107EE63-DB58-4972-ADCB-74F9D6247BE0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FCBCD0B7-2DAF-4D7F-9A38-EE0769517CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="471">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -95,7 +95,7 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>98,8%</t>
@@ -434,7 +434,58 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2012 (Tasa respuesta: 66,65%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -497,34 +548,40 @@
     <t>98,08%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>2,14%</t>
@@ -551,18 +608,12 @@
     <t>96,11%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
     <t>0,97%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
     <t>99,03%</t>
   </si>
   <si>
@@ -764,15 +815,9 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
@@ -785,12 +830,6 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
     <t>99,8%</t>
   </si>
   <si>
@@ -866,9 +905,6 @@
     <t>99,74%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
@@ -887,9 +923,6 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
     <t>97,93%</t>
   </si>
   <si>
@@ -908,9 +941,6 @@
     <t>97,87%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
@@ -926,9 +956,6 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -941,484 +968,490 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2023 (Tasa respuesta: 19,74%)</t>
   </si>
   <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9DF149-C50C-4F83-BCB5-BB8D5996CEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CF6AF-D985-4080-89C7-B26C399D1B72}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3361,7 +3394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACA0AEE-BC52-481F-AC45-C3B6B3305CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8811A5D0-0E47-4F07-8ACB-81F02576A3F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3479,43 +3512,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3775</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10522</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14297</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,43 +3563,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="D5" s="7">
+        <v>173949</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="I5" s="7">
+        <v>198161</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="N5" s="7">
+        <v>372111</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,43 +3614,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="D6" s="7">
+        <v>177724</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="I6" s="7">
+        <v>208683</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="N6" s="7">
+        <v>386408</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3673,13 @@
         <v>947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3637,13 +3688,13 @@
         <v>2144</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3655,10 +3706,10 @@
         <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,10 +3724,10 @@
         <v>315875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3685,13 +3736,13 @@
         <v>329</v>
       </c>
       <c r="I8" s="7">
-        <v>356266</v>
+        <v>356267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3706,10 +3757,10 @@
         <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,7 +3787,7 @@
         <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>358410</v>
+        <v>358411</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -3783,7 +3834,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3792,13 +3843,13 @@
         <v>2521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3813,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3882,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3843,10 +3894,10 @@
         <v>237078</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3861,7 +3912,7 @@
         <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3926,49 +3977,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>3775</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>15471</v>
+        <v>4949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4949</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>19246</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,49 +4028,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>417716</v>
+        <v>243766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="I14" s="7">
-        <v>485883</v>
+        <v>287722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
-        <v>840</v>
+        <v>494</v>
       </c>
       <c r="N14" s="7">
-        <v>903598</v>
+        <v>531488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,10 +4079,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>391</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7">
-        <v>421491</v>
+        <v>243766</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -4043,10 +4094,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>466</v>
+        <v>277</v>
       </c>
       <c r="I15" s="7">
-        <v>501354</v>
+        <v>292671</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -4058,10 +4109,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>857</v>
+        <v>499</v>
       </c>
       <c r="N15" s="7">
-        <v>922844</v>
+        <v>536437</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4087,13 +4138,13 @@
         <v>3105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4117,13 +4168,13 @@
         <v>3105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,10 +4189,10 @@
         <v>141957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -4168,10 +4219,10 @@
         <v>308498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -4248,7 +4299,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4263,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4272,7 +4323,7 @@
         <v>1918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
@@ -4296,7 +4347,7 @@
         <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -4311,7 +4362,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -4323,7 +4374,7 @@
         <v>378396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>49</v>
@@ -4400,10 +4451,10 @@
         <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4412,13 +4463,13 @@
         <v>6254</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4427,13 +4478,13 @@
         <v>11336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,10 +4502,10 @@
         <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H23" s="7">
         <v>418</v>
@@ -4463,13 +4514,13 @@
         <v>450357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
@@ -4478,13 +4529,13 @@
         <v>842213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4603,13 @@
         <v>1874</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4567,13 +4618,13 @@
         <v>2229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4582,13 +4633,13 @@
         <v>4103</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,10 +4654,10 @@
         <v>473986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -4618,10 +4669,10 @@
         <v>587731</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>21</v>
@@ -4633,13 +4684,13 @@
         <v>1061717</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4773,7 @@
         <v>28619</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>63</v>
@@ -4737,13 +4788,13 @@
         <v>45320</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4824,7 @@
         <v>2488211</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>111</v>
@@ -4788,10 +4839,10 @@
         <v>4608836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>97</v>
@@ -4874,7 +4925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC7627-CFC4-4617-98BD-B023CF7699BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B064BB-E7D8-4640-9DD1-ADBE50F4EADF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4891,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4998,13 +5049,13 @@
         <v>1036</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5013,13 +5064,13 @@
         <v>2907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5028,13 +5079,13 @@
         <v>3943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,10 +5100,10 @@
         <v>172425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5064,10 +5115,10 @@
         <v>197344</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>125</v>
@@ -5079,13 +5130,13 @@
         <v>369769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5204,13 @@
         <v>2100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5168,13 +5219,13 @@
         <v>2332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5186,10 +5237,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,10 +5255,10 @@
         <v>260121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5219,10 +5270,10 @@
         <v>319989</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5237,10 +5288,10 @@
         <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5359,13 @@
         <v>996</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5323,13 +5374,13 @@
         <v>1874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5338,13 +5389,13 @@
         <v>2870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,10 +5410,10 @@
         <v>176653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -5374,10 +5425,10 @@
         <v>210282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -5389,10 +5440,10 @@
         <v>386935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>59</v>
@@ -5469,7 +5520,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5478,13 +5529,13 @@
         <v>2863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5493,10 +5544,10 @@
         <v>2863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>105</v>
@@ -5517,7 +5568,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5529,13 +5580,13 @@
         <v>252794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -5544,13 +5595,13 @@
         <v>444310</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5669,13 @@
         <v>4519</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5654,7 +5705,7 @@
         <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5720,13 @@
         <v>129283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -5702,7 +5753,7 @@
         <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>112</v>
@@ -5773,13 +5824,13 @@
         <v>2858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5788,13 +5839,13 @@
         <v>1259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5806,10 +5857,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5875,13 @@
         <v>158363</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -5839,10 +5890,10 @@
         <v>170458</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -5851,16 +5902,16 @@
         <v>323</v>
       </c>
       <c r="N20" s="7">
-        <v>328821</v>
+        <v>328820</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5953,7 @@
         <v>327</v>
       </c>
       <c r="N21" s="7">
-        <v>332938</v>
+        <v>332937</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5928,13 +5979,13 @@
         <v>2180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5949,7 +6000,7 @@
         <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5961,10 +6012,10 @@
         <v>82</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,10 +6030,10 @@
         <v>338098</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -5997,7 +6048,7 @@
         <v>97</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>95</v>
@@ -6012,10 +6063,10 @@
         <v>87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6134,13 @@
         <v>3929</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6098,13 +6149,13 @@
         <v>8208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6116,10 +6167,10 @@
         <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6185,13 @@
         <v>452851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>524</v>
@@ -6149,13 +6200,13 @@
         <v>575691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>965</v>
@@ -6167,10 +6218,10 @@
         <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,10 +6292,10 @@
         <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6253,13 +6304,13 @@
         <v>22539</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -6268,13 +6319,13 @@
         <v>40157</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,10 +6343,10 @@
         <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>2160</v>
@@ -6304,13 +6355,13 @@
         <v>2312481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>3985</v>
@@ -6319,13 +6370,13 @@
         <v>4191791</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AEBEEB-CB09-4EA5-A2FF-01952FE085F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06BF93A-26F8-4E50-9DAD-2618FE4220D7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6422,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6526,46 +6577,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>8079</v>
+        <v>9019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>10514</v>
+        <v>10591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>18592</v>
+        <v>19610</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,46 +6628,46 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>14229</v>
+        <v>15910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>19493</v>
+        <v>20316</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>33723</v>
+        <v>36227</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,7 +6679,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>22308</v>
+        <v>24929</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -6643,7 +6694,7 @@
         <v>62</v>
       </c>
       <c r="I6" s="7">
-        <v>30007</v>
+        <v>30907</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -6658,7 +6709,7 @@
         <v>92</v>
       </c>
       <c r="N6" s="7">
-        <v>52315</v>
+        <v>55837</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -6681,46 +6732,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>17113</v>
+        <v>16311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>19214</v>
+        <v>17560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>36327</v>
+        <v>33871</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,46 +6783,46 @@
         <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>55646</v>
+        <v>53372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
       </c>
       <c r="I8" s="7">
-        <v>103304</v>
+        <v>94930</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>181</v>
       </c>
       <c r="N8" s="7">
-        <v>158949</v>
+        <v>148302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,7 +6834,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>72759</v>
+        <v>69683</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -6798,7 +6849,7 @@
         <v>164</v>
       </c>
       <c r="I9" s="7">
-        <v>122518</v>
+        <v>112490</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -6813,7 +6864,7 @@
         <v>227</v>
       </c>
       <c r="N9" s="7">
-        <v>195276</v>
+        <v>182173</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -6836,46 +6887,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>13925</v>
+        <v>13240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>21891</v>
+        <v>20090</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>35816</v>
+        <v>33330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,46 +6938,46 @@
         <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>31125</v>
+        <v>30164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>43013</v>
+        <v>39940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>74137</v>
+        <v>70103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,7 +6989,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>45050</v>
+        <v>43404</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -6953,7 +7004,7 @@
         <v>99</v>
       </c>
       <c r="I12" s="7">
-        <v>64904</v>
+        <v>60030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -6968,7 +7019,7 @@
         <v>157</v>
       </c>
       <c r="N12" s="7">
-        <v>109953</v>
+        <v>103433</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -6991,46 +7042,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>15707</v>
+        <v>15172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>15374</v>
+        <v>14310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>31081</v>
+        <v>29482</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,46 +7093,46 @@
         <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>47813</v>
+        <v>44870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
       </c>
       <c r="I14" s="7">
-        <v>66958</v>
+        <v>61984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
       </c>
       <c r="N14" s="7">
-        <v>114772</v>
+        <v>106854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7144,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>63520</v>
+        <v>60042</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -7108,7 +7159,7 @@
         <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>82332</v>
+        <v>76294</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -7123,7 +7174,7 @@
         <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>145853</v>
+        <v>136336</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -7146,46 +7197,46 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>4000</v>
+        <v>3582</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>8239</v>
+        <v>7393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>12239</v>
+        <v>10975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,46 +7248,46 @@
         <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>20704</v>
+        <v>18801</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>26379</v>
+        <v>23641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>47084</v>
+        <v>42442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,7 +7299,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>24704</v>
+        <v>22383</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -7263,7 +7314,7 @@
         <v>79</v>
       </c>
       <c r="I18" s="7">
-        <v>34618</v>
+        <v>31034</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -7278,7 +7329,7 @@
         <v>115</v>
       </c>
       <c r="N18" s="7">
-        <v>59323</v>
+        <v>53417</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -7301,46 +7352,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>13604</v>
+        <v>12934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>19212</v>
+        <v>17921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
       </c>
       <c r="N19" s="7">
-        <v>32815</v>
+        <v>30855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7403,46 @@
         <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>44975</v>
+        <v>44037</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
       </c>
       <c r="I20" s="7">
-        <v>56753</v>
+        <v>52879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
       </c>
       <c r="N20" s="7">
-        <v>101728</v>
+        <v>96916</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,7 +7454,7 @@
         <v>89</v>
       </c>
       <c r="D21" s="7">
-        <v>58579</v>
+        <v>56971</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -7418,7 +7469,7 @@
         <v>141</v>
       </c>
       <c r="I21" s="7">
-        <v>75965</v>
+        <v>70800</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -7433,7 +7484,7 @@
         <v>230</v>
       </c>
       <c r="N21" s="7">
-        <v>134543</v>
+        <v>127771</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -7456,46 +7507,46 @@
         <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>5251</v>
+        <v>5011</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>13486</v>
+        <v>11580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>18737</v>
+        <v>16591</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,46 +7558,46 @@
         <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>44294</v>
+        <v>43373</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>163957</v>
+        <v>254320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>134</v>
       </c>
       <c r="N23" s="7">
-        <v>208251</v>
+        <v>297693</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7609,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="7">
-        <v>49545</v>
+        <v>48384</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -7573,7 +7624,7 @@
         <v>109</v>
       </c>
       <c r="I24" s="7">
-        <v>177443</v>
+        <v>265900</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>
@@ -7588,7 +7639,7 @@
         <v>161</v>
       </c>
       <c r="N24" s="7">
-        <v>226988</v>
+        <v>314284</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -7611,46 +7662,46 @@
         <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>7110</v>
+        <v>6065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>25133</v>
+        <v>20838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>32243</v>
+        <v>26902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,46 +7713,46 @@
         <v>174</v>
       </c>
       <c r="D26" s="7">
-        <v>185420</v>
+        <v>157392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>333</v>
       </c>
       <c r="I26" s="7">
-        <v>276475</v>
+        <v>228540</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>507</v>
       </c>
       <c r="N26" s="7">
-        <v>461896</v>
+        <v>385934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,7 +7764,7 @@
         <v>183</v>
       </c>
       <c r="D27" s="7">
-        <v>192530</v>
+        <v>163457</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -7728,7 +7779,7 @@
         <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>301608</v>
+        <v>249378</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
@@ -7743,7 +7794,7 @@
         <v>554</v>
       </c>
       <c r="N27" s="7">
-        <v>494139</v>
+        <v>412836</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>23</v>
@@ -7766,46 +7817,46 @@
         <v>110</v>
       </c>
       <c r="D28" s="7">
-        <v>84788</v>
+        <v>81334</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>247</v>
       </c>
       <c r="I28" s="7">
-        <v>133063</v>
+        <v>120283</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>357</v>
       </c>
       <c r="N28" s="7">
-        <v>217851</v>
+        <v>201617</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,46 +7868,46 @@
         <v>460</v>
       </c>
       <c r="D29" s="7">
-        <v>444207</v>
+        <v>407919</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>909</v>
       </c>
       <c r="I29" s="7">
-        <v>756332</v>
+        <v>776551</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>1369</v>
       </c>
       <c r="N29" s="7">
-        <v>1200539</v>
+        <v>1184470</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,7 +7919,7 @@
         <v>570</v>
       </c>
       <c r="D30" s="7">
-        <v>528995</v>
+        <v>489253</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -7883,7 +7934,7 @@
         <v>1156</v>
       </c>
       <c r="I30" s="7">
-        <v>889395</v>
+        <v>896834</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
@@ -7898,7 +7949,7 @@
         <v>1726</v>
       </c>
       <c r="N30" s="7">
-        <v>1418390</v>
+        <v>1386087</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>23</v>
